--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -24,7 +24,7 @@
     <t>Day 1</t>
   </si>
   <si>
-    <t>Python Basics</t>
+    <t>1. Python Basics and function practice with data types.</t>
   </si>
 </sst>
 </file>
@@ -840,7 +840,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.44140625" customWidth="1"/>
+    <col min="2" max="2" width="59.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -19,12 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Day 1</t>
   </si>
   <si>
     <t>1. Python Basics and function practice with data types.</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>2.Basic of HTTP methods</t>
   </si>
 </sst>
 </file>
@@ -831,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,6 +857,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Day 1</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>2.Basic of HTTP methods</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>3. Task complete and new task added</t>
   </si>
 </sst>
 </file>
@@ -837,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,6 +871,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Day 1</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">3. Task complete and new task added(IterTools, Generator, deepcopy) and installed Ubuntu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guessing Game, Recursion, Factorial and OOP</t>
   </si>
 </sst>
 </file>
@@ -135,16 +141,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="98.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="98.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -171,6 +177,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
